--- a/UI Designs.xlsx
+++ b/UI Designs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95275eea7cb7ee2b/University/Year 2/Term 2/Software Engineering Group Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\GitHub\Treasure-Hunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{34DC0EAA-0179-46F2-9F22-0F5DBE28FBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6850D3C-2330-4F0B-8273-91F6F56034BA}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="8_{34DC0EAA-0179-46F2-9F22-0F5DBE28FBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB372878-610E-4898-A497-B462AD9517CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2EDB7A82-B321-4139-A9D1-8D4677248AFC}"/>
   </bookViews>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Team Name:</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>Team Members:</t>
   </si>
   <si>
     <t>MAP</t>
@@ -151,12 +145,33 @@
   <si>
     <t>Join a Game</t>
   </si>
+  <si>
+    <t>Game Pin:</t>
+  </si>
+  <si>
+    <t>Create Game</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Letters Collected</t>
+  </si>
+  <si>
+    <t>Print QR Codes</t>
+  </si>
+  <si>
+    <t>Upload Game File</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <b/>
       <sz val="11"/>
@@ -274,6 +289,20 @@
       <name val="Abadi Extra Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Abadi Extra Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="2"/>
+      <name val="Abadi Extra Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -319,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -388,31 +417,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,58 +594,64 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,6 +1821,642 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D34364-46FC-4111-A5C6-E3C700DD9815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="7496175"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Graphic 26" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C915622C-88A6-4DB6-A379-0656747435F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="7677150"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Graphic 27" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112E0789-F5E9-4C26-BC6C-638E7D3540BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="7877175"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Graphic 28" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4BA0B2-83F1-4039-BC58-816A44A7E80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="8058150"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Graphic 29" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D9D2B5-1F2E-49DD-83F4-AA8AE38722B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="8258175"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2605C382-E9FC-4484-8C68-F568685098B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="8458200"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Graphic 31" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF62FD8-3E57-45AE-85C8-2ED3572649BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="8639175"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Graphic 36" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC46CFB-0A3E-407E-8DE7-5826DD567E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="8820150"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Graphic 39" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F9758E-4449-4DFA-BC07-D7C8A16E7B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="9010650"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Graphic 40" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF30FDF-1ED3-482D-89EA-290A1AF3FA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="9201150"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Graphic 41" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14EE607-EB55-447F-A21C-F026212C061D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="9401175"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Graphic 42" descr="Pencil">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B960C1C-F3B7-4B1E-A0B1-7CCDDE039DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="9591675"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1944,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6ABB-53E8-4B02-BBA7-0CAF8329BF1E}">
   <dimension ref="D1:BE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,28 +2784,28 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="R4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="4"/>
+      <c r="R4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="27"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="V4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="4"/>
-      <c r="AF4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG4" s="8"/>
+      <c r="AB4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="27"/>
+      <c r="AF4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" s="30"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -2001,10 +2816,10 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
-      <c r="AT4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU4" s="8"/>
+      <c r="AT4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU4" s="30"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
@@ -2018,240 +2833,240 @@
     </row>
     <row r="5" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-      <c r="E5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="E5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
       <c r="O5" s="1"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="40"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
+      <c r="AT5" s="30"/>
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="31"/>
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="31"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
     </row>
     <row r="6" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
       <c r="O6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
+      <c r="S6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
       <c r="AC6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="14"/>
-      <c r="BC6" s="14"/>
+      <c r="AV6" s="31"/>
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="31"/>
+      <c r="BC6" s="31"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
     </row>
     <row r="7" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="D7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
       <c r="AC7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
+      <c r="AZ7" s="31"/>
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="31"/>
+      <c r="BC7" s="31"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
     </row>
     <row r="8" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
       <c r="AC8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
       <c r="AT8" s="1"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="19"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
       <c r="BE8" s="1"/>
     </row>
-    <row r="9" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="E9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
       <c r="AC9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
@@ -2266,32 +3081,30 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AT9" s="1"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
       <c r="BE9" s="1"/>
     </row>
-    <row r="10" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2306,111 +3119,109 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
+      <c r="AG10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
       <c r="AQ10" s="1"/>
       <c r="AT10" s="1"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="19"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
       <c r="BE10" s="1"/>
     </row>
-    <row r="11" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="V11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
+      <c r="AG11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
       <c r="AQ11" s="1"/>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="19"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
       <c r="BE11" s="1"/>
     </row>
     <row r="12" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="E12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -2428,39 +3239,41 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
       <c r="BE12" s="1"/>
     </row>
     <row r="13" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="E13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -2478,32 +3291,30 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="19"/>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="19"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
       <c r="BE13" s="1"/>
     </row>
     <row r="14" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2530,44 +3341,46 @@
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AT14" s="1"/>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="19"/>
-      <c r="BB14" s="19"/>
-      <c r="BC14" s="19"/>
-      <c r="BD14" s="19"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
       <c r="BE14" s="1"/>
     </row>
     <row r="15" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="16">
+      <c r="S15" s="36">
         <v>0</v>
       </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
       <c r="AC15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -2582,44 +3395,42 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="19"/>
-      <c r="BD15" s="19"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
       <c r="BE15" s="1"/>
     </row>
     <row r="16" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
-      <c r="E16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
       <c r="AC16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
@@ -2634,44 +3445,42 @@
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
       <c r="AT16" s="1"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
       <c r="BE16" s="1"/>
     </row>
     <row r="17" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
       <c r="AC17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -2686,42 +3495,44 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
       <c r="AT17" s="1"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
       <c r="BE17" s="1"/>
     </row>
     <row r="18" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="E18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
       <c r="AC18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -2736,42 +3547,42 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AT18" s="1"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="19"/>
-      <c r="BD18" s="19"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
       <c r="BE18" s="1"/>
     </row>
     <row r="19" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="1"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="3"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
       <c r="AC19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -2786,30 +3597,30 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AT19" s="1"/>
-      <c r="AU19" s="19"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19"/>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="19"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
       <c r="BE19" s="1"/>
     </row>
-    <row r="20" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2836,30 +3647,32 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AT20" s="1"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
       <c r="BE20" s="1"/>
     </row>
     <row r="21" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="E21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2900,26 +3713,28 @@
     </row>
     <row r="22" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="E22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+      <c r="S22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="17"/>
+      <c r="X22" s="4"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -2964,14 +3779,14 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
+      <c r="S23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="17"/>
+      <c r="X23" s="4"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
@@ -2992,14 +3807,14 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
-      <c r="AW23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
+      <c r="AW23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="23"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="17"/>
+      <c r="BB23" s="4"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
@@ -3009,23 +3824,25 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="H24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
+      <c r="S24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="17"/>
+      <c r="X24" s="4"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
@@ -3046,14 +3863,14 @@
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
-      <c r="AW24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
+      <c r="AW24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX24" s="23"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="23"/>
       <c r="BA24" s="2"/>
-      <c r="BB24" s="17"/>
+      <c r="BB24" s="4"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
@@ -3072,14 +3889,14 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+      <c r="S25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="17"/>
+      <c r="X25" s="4"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -3100,14 +3917,14 @@
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
-      <c r="AW25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
+      <c r="AW25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
       <c r="BA25" s="2"/>
-      <c r="BB25" s="17"/>
+      <c r="BB25" s="4"/>
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
@@ -3126,14 +3943,14 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="S26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="17"/>
+      <c r="X26" s="4"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
@@ -3154,14 +3971,14 @@
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
-      <c r="AW26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
+      <c r="AW26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
       <c r="BA26" s="2"/>
-      <c r="BB26" s="17"/>
+      <c r="BB26" s="4"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
@@ -3170,33 +3987,31 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="S27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="17"/>
+      <c r="X27" s="4"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="6"/>
+      <c r="Z27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="3"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -3212,14 +4027,14 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
-      <c r="AW27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
+      <c r="AW27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX27" s="23"/>
+      <c r="AY27" s="23"/>
+      <c r="AZ27" s="23"/>
       <c r="BA27" s="2"/>
-      <c r="BB27" s="17"/>
+      <c r="BB27" s="4"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
@@ -3228,24 +4043,24 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
+      <c r="S28" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="17"/>
+      <c r="X28" s="4"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
@@ -3266,14 +4081,14 @@
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
-      <c r="AW28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
+      <c r="AW28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX28" s="23"/>
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
       <c r="BA28" s="2"/>
-      <c r="BB28" s="17"/>
+      <c r="BB28" s="4"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
@@ -3318,14 +4133,14 @@
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
-      <c r="AW29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
+      <c r="AW29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX29" s="23"/>
+      <c r="AY29" s="23"/>
+      <c r="AZ29" s="23"/>
       <c r="BA29" s="2"/>
-      <c r="BB29" s="17"/>
+      <c r="BB29" s="4"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
@@ -3457,10 +4272,10 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AF34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG34" s="8"/>
+      <c r="AF34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG34" s="30"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -3480,20 +4295,20 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
+      <c r="K35" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -3501,18 +4316,18 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AO35" s="14"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
     </row>
@@ -3524,18 +4339,18 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -3545,14 +4360,14 @@
       <c r="AC36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
-      <c r="AH36" s="14"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="14"/>
-      <c r="AO36" s="14"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
     </row>
@@ -3564,18 +4379,18 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -3585,313 +4400,325 @@
       <c r="AC37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="14"/>
-      <c r="AM37" s="14"/>
-      <c r="AN37" s="14"/>
-      <c r="AO37" s="14"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
     </row>
-    <row r="38" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="E38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
+      <c r="O38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
       <c r="AC38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="23"/>
+      <c r="AP38" s="23"/>
       <c r="AQ38" s="1"/>
     </row>
     <row r="39" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="19"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
       <c r="AC39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="12" t="s">
+      <c r="AG39" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH39" s="24"/>
+      <c r="AI39" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="24"/>
+      <c r="AL39" s="24"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ39" s="12"/>
-      <c r="AK39" s="12"/>
-      <c r="AL39" s="12"/>
-      <c r="AM39" s="12"/>
-      <c r="AN39" s="12"/>
-      <c r="AO39" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP39" s="25"/>
+      <c r="AP39" s="33"/>
       <c r="AQ39" s="1"/>
     </row>
     <row r="40" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
       <c r="AC40" s="1"/>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="12"/>
-      <c r="AK40" s="12"/>
-      <c r="AL40" s="12"/>
-      <c r="AM40" s="12"/>
-      <c r="AN40" s="12"/>
-      <c r="AO40" s="25"/>
-      <c r="AP40" s="25"/>
+      <c r="AG40" s="24"/>
+      <c r="AH40" s="24"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="24"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="33"/>
       <c r="AQ40" s="1"/>
     </row>
     <row r="41" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="E41" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
       <c r="AC41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="22">
+      <c r="AG41" s="25">
         <v>1</v>
       </c>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="13"/>
-      <c r="AM41" s="13"/>
-      <c r="AN41" s="13"/>
-      <c r="AO41" s="13">
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="32"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="32"/>
+      <c r="AO41" s="32">
         <v>6</v>
       </c>
-      <c r="AP41" s="13"/>
+      <c r="AP41" s="32"/>
       <c r="AQ41" s="1"/>
     </row>
     <row r="42" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
       <c r="AC42" s="1"/>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="13"/>
-      <c r="AM42" s="13"/>
-      <c r="AN42" s="13"/>
-      <c r="AO42" s="13"/>
-      <c r="AP42" s="13"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="32"/>
+      <c r="AP42" s="32"/>
       <c r="AQ42" s="1"/>
     </row>
     <row r="43" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="E43" s="54">
+        <v>6734</v>
+      </c>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
       <c r="AC43" s="1"/>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="13"/>
-      <c r="AJ43" s="13"/>
-      <c r="AK43" s="13"/>
-      <c r="AL43" s="13"/>
-      <c r="AM43" s="13"/>
-      <c r="AN43" s="13"/>
-      <c r="AO43" s="13"/>
-      <c r="AP43" s="13"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="32"/>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="32"/>
+      <c r="AM43" s="32"/>
+      <c r="AN43" s="32"/>
+      <c r="AO43" s="32"/>
+      <c r="AP43" s="32"/>
       <c r="AQ43" s="1"/>
     </row>
     <row r="44" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
       <c r="AC44" s="1"/>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="23">
+      <c r="AG44" s="29">
         <v>2</v>
       </c>
-      <c r="AH44" s="23"/>
-      <c r="AI44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="8"/>
-      <c r="AN44" s="8"/>
-      <c r="AO44" s="8">
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="30"/>
+      <c r="AO44" s="30">
         <v>5</v>
       </c>
-      <c r="AP44" s="8"/>
+      <c r="AP44" s="30"/>
       <c r="AQ44" s="1"/>
     </row>
     <row r="45" spans="4:43" x14ac:dyDescent="0.25">
@@ -3904,34 +4731,34 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
       <c r="AC45" s="1"/>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="23"/>
-      <c r="AH45" s="23"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
-      <c r="AL45" s="8"/>
-      <c r="AM45" s="8"/>
-      <c r="AN45" s="8"/>
-      <c r="AO45" s="8"/>
-      <c r="AP45" s="8"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="30"/>
       <c r="AQ45" s="1"/>
     </row>
     <row r="46" spans="4:43" x14ac:dyDescent="0.25">
@@ -3944,132 +4771,134 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
       <c r="AC46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46" s="24">
+      <c r="AG46" s="28">
         <v>3</v>
       </c>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ46" s="3"/>
-      <c r="AK46" s="3"/>
-      <c r="AL46" s="3"/>
-      <c r="AM46" s="3"/>
-      <c r="AN46" s="3"/>
-      <c r="AO46" s="4">
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="27">
         <v>4</v>
       </c>
-      <c r="AP46" s="4"/>
+      <c r="AP46" s="27"/>
       <c r="AQ46" s="1"/>
     </row>
     <row r="47" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="E47" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="46"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
       <c r="AC47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="3">
+      <c r="AG47" s="23">
         <v>4</v>
       </c>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ47" s="3"/>
-      <c r="AK47" s="3"/>
-      <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="3"/>
-      <c r="AO47" s="4">
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="23"/>
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="27">
         <v>3</v>
       </c>
-      <c r="AP47" s="4"/>
+      <c r="AP47" s="27"/>
       <c r="AQ47" s="1"/>
     </row>
     <row r="48" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="49"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
       <c r="AC48" s="1"/>
       <c r="AF48" s="1"/>
-      <c r="AG48" s="3">
+      <c r="AG48" s="23">
         <v>5</v>
       </c>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="4">
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ48" s="23"/>
+      <c r="AK48" s="23"/>
+      <c r="AL48" s="23"/>
+      <c r="AM48" s="23"/>
+      <c r="AN48" s="23"/>
+      <c r="AO48" s="27">
         <v>2</v>
       </c>
-      <c r="AP48" s="4"/>
+      <c r="AP48" s="27"/>
       <c r="AQ48" s="1"/>
     </row>
     <row r="49" spans="4:43" x14ac:dyDescent="0.25">
@@ -4082,68 +4911,70 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
       <c r="AC49" s="1"/>
       <c r="AF49" s="1"/>
-      <c r="AG49" s="3">
+      <c r="AG49" s="23">
         <v>6</v>
       </c>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-      <c r="AN49" s="3"/>
-      <c r="AO49" s="4">
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23"/>
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="27">
         <v>1</v>
       </c>
-      <c r="AP49" s="4"/>
+      <c r="AP49" s="27"/>
       <c r="AQ49" s="1"/>
     </row>
     <row r="50" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="E50" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="56"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
       <c r="AC50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -4160,30 +4991,30 @@
     </row>
     <row r="51" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="59"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
       <c r="AC51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -4240,12 +5071,12 @@
     </row>
     <row r="53" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -4280,12 +5111,12 @@
     </row>
     <row r="54" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -4443,73 +5274,27 @@
       <c r="AQ61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="AI41:AN43"/>
-    <mergeCell ref="AO41:AP43"/>
-    <mergeCell ref="AO39:AP40"/>
-    <mergeCell ref="AG39:AH40"/>
-    <mergeCell ref="AI39:AN40"/>
-    <mergeCell ref="AO38:AP38"/>
-    <mergeCell ref="AI38:AN38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AO49:AP49"/>
-    <mergeCell ref="AO48:AP48"/>
-    <mergeCell ref="AI49:AN49"/>
-    <mergeCell ref="AI48:AN48"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AG41:AH43"/>
-    <mergeCell ref="AI47:AN47"/>
-    <mergeCell ref="AO44:AP45"/>
-    <mergeCell ref="AO47:AP47"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AI44:AN45"/>
-    <mergeCell ref="AI46:AN46"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AG44:AH45"/>
-    <mergeCell ref="AF34:AG35"/>
-    <mergeCell ref="AH35:AO37"/>
+  <mergeCells count="112">
+    <mergeCell ref="E53:J54"/>
+    <mergeCell ref="E5:N6"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:N19"/>
+    <mergeCell ref="E47:J48"/>
+    <mergeCell ref="E50:J51"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="E43:J44"/>
+    <mergeCell ref="AW29:AZ29"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
     <mergeCell ref="AG11:AP11"/>
     <mergeCell ref="AH5:AO8"/>
-    <mergeCell ref="K35:V37"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="AW29:AZ29"/>
-    <mergeCell ref="AT4:AU5"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AV5:BC7"/>
-    <mergeCell ref="S15:AB19"/>
-    <mergeCell ref="Z27:AB27"/>
     <mergeCell ref="AG10:AP10"/>
     <mergeCell ref="AF4:AG5"/>
     <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S6:AB7"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="X12:X13"/>
     <mergeCell ref="W12:W13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="G27:L28"/>
-    <mergeCell ref="R4:S5"/>
     <mergeCell ref="AB4:AC5"/>
     <mergeCell ref="AB8:AB9"/>
     <mergeCell ref="AA8:AA9"/>
@@ -4518,15 +5303,90 @@
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="V8:V9"/>
-    <mergeCell ref="E5:N6"/>
-    <mergeCell ref="E8:N9"/>
-    <mergeCell ref="E14:N15"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="AT4:AU5"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AV5:BC7"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S6:AB7"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="S15:AB19"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="G27:L28"/>
+    <mergeCell ref="AO49:AP49"/>
+    <mergeCell ref="AO48:AP48"/>
+    <mergeCell ref="AI49:AN49"/>
+    <mergeCell ref="AI48:AN48"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AG44:AH45"/>
+    <mergeCell ref="AI47:AN47"/>
+    <mergeCell ref="AO44:AP45"/>
+    <mergeCell ref="AO47:AP47"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AI44:AN45"/>
+    <mergeCell ref="AI46:AN46"/>
+    <mergeCell ref="AO38:AP38"/>
+    <mergeCell ref="AI38:AN38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AG41:AH43"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y43:AB43"/>
+    <mergeCell ref="V38:X39"/>
+    <mergeCell ref="Y38:AB39"/>
+    <mergeCell ref="AF34:AG35"/>
+    <mergeCell ref="AH35:AO37"/>
+    <mergeCell ref="AI41:AN43"/>
+    <mergeCell ref="AO41:AP43"/>
+    <mergeCell ref="AO39:AP40"/>
+    <mergeCell ref="AG39:AH40"/>
+    <mergeCell ref="AI39:AN40"/>
+    <mergeCell ref="K35:V37"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="E9:N10"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="O38:U39"/>
+    <mergeCell ref="Y44:AB44"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="Y46:AB46"/>
+    <mergeCell ref="Y47:AB47"/>
+    <mergeCell ref="Y48:AB48"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="V48:X48"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UI Designs.xlsx
+++ b/UI Designs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95275eea7cb7ee2b/Documents/GitHub/Treasure-Hunt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\GitHub\Treasure-Hunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{7814050B-ECB0-46BE-AFB5-ECA1447CE72D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="14_{7814050B-ECB0-46BE-AFB5-ECA1447CE72D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8580282-E030-435E-B024-85F982CDEDAF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2EDB7A82-B321-4139-A9D1-8D4677248AFC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Team Name:</t>
   </si>
@@ -128,19 +128,7 @@
     <t>To the University of Exeter Freshers Treasure Hunt</t>
   </si>
   <si>
-    <t>Game Leader?</t>
-  </si>
-  <si>
     <t>Username:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password: </t>
-  </si>
-  <si>
-    <t>Create a new Game</t>
-  </si>
-  <si>
-    <t>Join a Game</t>
   </si>
   <si>
     <t>Game Pin:</t>
@@ -168,6 +156,39 @@
   </si>
   <si>
     <t>DASHBOARD</t>
+  </si>
+  <si>
+    <t>Register your Team</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Lock Back into Your Game</t>
+  </si>
+  <si>
+    <t>Join Game</t>
+  </si>
+  <si>
+    <t>Admin Login</t>
+  </si>
+  <si>
+    <t>Password:</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Location Category</t>
+  </si>
+  <si>
+    <t>Building</t>
   </si>
 </sst>
 </file>
@@ -538,20 +559,92 @@
     <xf numFmtId="20" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,70 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,15 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2081,8 +2102,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>192036</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2795,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6ABB-53E8-4B02-BBA7-0CAF8329BF1E}">
-  <dimension ref="D1:BE61"/>
+  <dimension ref="D1:BS61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BO21" sqref="BO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,8 +2829,8 @@
     <col min="80" max="94" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2819,31 +2840,33 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="R4" s="29" t="s">
+      <c r="M4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="R4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="29"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="29" t="s">
+      <c r="V4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="29"/>
-      <c r="AF4" s="32" t="s">
+      <c r="AC4" s="30"/>
+      <c r="AF4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="32"/>
+      <c r="AG4" s="24"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -2854,10 +2877,10 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
-      <c r="AT4" s="32" t="s">
+      <c r="AT4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="32"/>
+      <c r="AU4" s="24"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
@@ -2868,168 +2891,220 @@
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
+      <c r="BH4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI4" s="24"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
     </row>
-    <row r="5" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="1"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="36" t="s">
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="34" t="s">
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="24"/>
+      <c r="BJ5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
     </row>
-    <row r="6" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
+      <c r="S6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
       <c r="AC6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="34"/>
-      <c r="BB6" s="34"/>
-      <c r="BC6" s="34"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="25"/>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
     </row>
-    <row r="7" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="31" t="s">
+    <row r="7" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
       <c r="AC7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="34"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
-      <c r="BB7" s="34"/>
-      <c r="BC7" s="34"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="34"/>
+      <c r="BL7" s="34"/>
+      <c r="BM7" s="34"/>
+      <c r="BN7" s="34"/>
+      <c r="BO7" s="34"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="34"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
     </row>
-    <row r="8" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3043,29 +3118,29 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
       <c r="AC8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
       <c r="AT8" s="1"/>
@@ -3080,33 +3155,45 @@
       <c r="BC8" s="5"/>
       <c r="BD8" s="5"/>
       <c r="BE8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="34"/>
+      <c r="BN8" s="34"/>
+      <c r="BO8" s="34"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="34"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
     </row>
-    <row r="9" spans="4:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="E9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
       <c r="O9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
       <c r="AC9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
@@ -3132,45 +3219,57 @@
       <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
       <c r="BE9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
     </row>
-    <row r="10" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
       <c r="AC10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="12" t="s">
+      <c r="AG10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
       <c r="AQ10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="5"/>
@@ -3184,8 +3283,22 @@
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="19"/>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="19"/>
+      <c r="BQ10" s="19"/>
+      <c r="BR10" s="19"/>
+      <c r="BS10" s="1"/>
     </row>
-    <row r="11" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -3199,30 +3312,30 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
       <c r="AC11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="35" t="s">
+      <c r="AG11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
       <c r="AQ11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="5"/>
@@ -3236,14 +3349,28 @@
       <c r="BC11" s="5"/>
       <c r="BD11" s="5"/>
       <c r="BE11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="33"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="33"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="1"/>
     </row>
-    <row r="12" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -3256,12 +3383,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -3290,14 +3417,28 @@
       <c r="BC12" s="5"/>
       <c r="BD12" s="5"/>
       <c r="BE12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="19"/>
+      <c r="BL12" s="19"/>
+      <c r="BM12" s="19"/>
+      <c r="BN12" s="19"/>
+      <c r="BO12" s="19"/>
+      <c r="BP12" s="19"/>
+      <c r="BQ12" s="19"/>
+      <c r="BR12" s="19"/>
+      <c r="BS12" s="1"/>
     </row>
-    <row r="13" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="E13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -3310,10 +3451,10 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -3342,8 +3483,22 @@
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="33"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="33"/>
+      <c r="BR13" s="33"/>
+      <c r="BS13" s="1"/>
     </row>
-    <row r="14" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3360,10 +3515,10 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -3392,18 +3547,32 @@
       <c r="BC14" s="5"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ14" s="19"/>
+      <c r="BK14" s="19"/>
+      <c r="BL14" s="19"/>
+      <c r="BM14" s="19"/>
+      <c r="BN14" s="19"/>
+      <c r="BO14" s="19"/>
+      <c r="BP14" s="19"/>
+      <c r="BQ14" s="19"/>
+      <c r="BR14" s="19"/>
+      <c r="BS14" s="1"/>
     </row>
-    <row r="15" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="H15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -3444,8 +3613,22 @@
       <c r="BC15" s="5"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ15" s="33"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="33"/>
+      <c r="BM15" s="33"/>
+      <c r="BN15" s="33"/>
+      <c r="BO15" s="33"/>
+      <c r="BP15" s="33"/>
+      <c r="BQ15" s="33"/>
+      <c r="BR15" s="33"/>
+      <c r="BS15" s="1"/>
     </row>
-    <row r="16" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3460,16 +3643,16 @@
       <c r="O16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="60">
+      <c r="T16" s="20">
         <v>0</v>
       </c>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="1"/>
       <c r="AF16" s="1"/>
@@ -3496,8 +3679,20 @@
       <c r="BC16" s="5"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
     </row>
-    <row r="17" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3512,14 +3707,14 @@
       <c r="O17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="1"/>
       <c r="AF17" s="1"/>
@@ -3546,32 +3741,44 @@
       <c r="BC17" s="5"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
     </row>
-    <row r="18" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
-      <c r="E18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="E18" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
       <c r="O18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="11"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="1"/>
       <c r="AF18" s="1"/>
@@ -3598,30 +3805,42 @@
       <c r="BC18" s="5"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
     </row>
-    <row r="19" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="3"/>
       <c r="R19" s="1"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="60"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="1"/>
       <c r="AF19" s="1"/>
@@ -3648,8 +3867,20 @@
       <c r="BC19" s="5"/>
       <c r="BD19" s="5"/>
       <c r="BE19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
     </row>
-    <row r="20" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3698,14 +3929,26 @@
       <c r="BC20" s="5"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
     </row>
-    <row r="21" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="E21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -3750,14 +3993,26 @@
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
     </row>
-    <row r="22" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -3767,12 +4022,12 @@
       <c r="N22" s="8"/>
       <c r="O22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="12" t="s">
+      <c r="S22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
       <c r="W22" s="2"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="1"/>
@@ -3804,8 +4059,20 @@
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
     </row>
-    <row r="23" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3819,12 +4086,12 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="12" t="s">
+      <c r="S23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
       <c r="W23" s="2"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="1"/>
@@ -3847,40 +4114,52 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
-      <c r="AW23" s="12" t="s">
+      <c r="AW23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
       <c r="BA23" s="2"/>
       <c r="BB23" s="4"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
     </row>
-    <row r="24" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
+      <c r="H24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="12" t="s">
+      <c r="S24" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
       <c r="W24" s="2"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="1"/>
@@ -3903,19 +4182,31 @@
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
-      <c r="AW24" s="12" t="s">
+      <c r="AW24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AX24" s="12"/>
-      <c r="AY24" s="12"/>
-      <c r="AZ24" s="12"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
       <c r="BA24" s="2"/>
       <c r="BB24" s="4"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
     </row>
-    <row r="25" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3929,12 +4220,12 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="12" t="s">
+      <c r="S25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
       <c r="W25" s="2"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="1"/>
@@ -3957,19 +4248,31 @@
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
-      <c r="AW25" s="12" t="s">
+      <c r="AW25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AX25" s="12"/>
-      <c r="AY25" s="12"/>
-      <c r="AZ25" s="12"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
       <c r="BA25" s="2"/>
       <c r="BB25" s="4"/>
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
     </row>
-    <row r="26" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3983,12 +4286,12 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="12" t="s">
+      <c r="S26" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
       <c r="W26" s="2"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="1"/>
@@ -4011,46 +4314,58 @@
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
-      <c r="AW26" s="12" t="s">
+      <c r="AW26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AX26" s="12"/>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="12"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
       <c r="BA26" s="2"/>
       <c r="BB26" s="4"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
     </row>
-    <row r="27" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="12" t="s">
+      <c r="S27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
       <c r="W27" s="2"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="12" t="s">
+      <c r="Z27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
       <c r="AC27" s="3"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -4067,38 +4382,50 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
-      <c r="AW27" s="12" t="s">
+      <c r="AW27" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="12"/>
-      <c r="AZ27" s="12"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="4"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
     </row>
-    <row r="28" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="12" t="s">
+      <c r="S28" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
       <c r="W28" s="2"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="1"/>
@@ -4121,19 +4448,31 @@
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
-      <c r="AW28" s="12" t="s">
+      <c r="AW28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="12"/>
-      <c r="AZ28" s="12"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
       <c r="BA28" s="2"/>
       <c r="BB28" s="4"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
     </row>
-    <row r="29" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4173,19 +4512,31 @@
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
-      <c r="AW29" s="12" t="s">
+      <c r="AW29" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="12"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
       <c r="BA29" s="2"/>
       <c r="BB29" s="4"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
     </row>
-    <row r="30" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -4234,8 +4585,20 @@
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
     </row>
-    <row r="31" spans="4:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:71" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -4284,11 +4647,25 @@
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
     </row>
-    <row r="34" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+    <row r="34" spans="4:57" x14ac:dyDescent="0.25">
+      <c r="D34" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4312,10 +4689,10 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AF34" s="32" t="s">
+      <c r="AF34" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AG34" s="32"/>
+      <c r="AG34" s="24"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -4326,29 +4703,43 @@
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
+      <c r="AT34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU34" s="24"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
     </row>
-    <row r="35" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+    <row r="35" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="45" t="s">
+      <c r="K35" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -4356,22 +4747,34 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="34" t="s">
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
-      <c r="AM35" s="34"/>
-      <c r="AN35" s="34"/>
-      <c r="AO35" s="34"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="25"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="25"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
+      <c r="AT35" s="24"/>
+      <c r="AU35" s="24"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+      <c r="BE35" s="3"/>
     </row>
-    <row r="36" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -4379,18 +4782,18 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -4400,18 +4803,32 @@
       <c r="AC36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="25"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW36" s="25"/>
+      <c r="AX36" s="25"/>
+      <c r="AY36" s="25"/>
+      <c r="AZ36" s="25"/>
+      <c r="BA36" s="25"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="25"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
     </row>
-    <row r="37" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -4419,18 +4836,18 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -4440,119 +4857,155 @@
       <c r="AC37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="25"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="25"/>
+      <c r="AW37" s="25"/>
+      <c r="AX37" s="25"/>
+      <c r="AY37" s="25"/>
+      <c r="AZ37" s="25"/>
+      <c r="BA37" s="25"/>
+      <c r="BB37" s="25"/>
+      <c r="BC37" s="25"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3"/>
     </row>
-    <row r="38" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
-      <c r="E38" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="53"/>
+      <c r="E38" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="56"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
+      <c r="O38" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
       <c r="AC38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
-      <c r="AI38" s="12"/>
-      <c r="AJ38" s="12"/>
-      <c r="AK38" s="12"/>
-      <c r="AL38" s="12"/>
-      <c r="AM38" s="12"/>
-      <c r="AN38" s="12"/>
-      <c r="AO38" s="12"/>
-      <c r="AP38" s="12"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
       <c r="AQ38" s="1"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="25"/>
+      <c r="AW38" s="25"/>
+      <c r="AX38" s="25"/>
+      <c r="AY38" s="25"/>
+      <c r="AZ38" s="25"/>
+      <c r="BA38" s="25"/>
+      <c r="BB38" s="25"/>
+      <c r="BC38" s="25"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
     </row>
-    <row r="39" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="59"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
       <c r="AC39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="41" t="s">
+      <c r="AG39" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41" t="s">
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="44" t="s">
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AP39" s="44"/>
+      <c r="AP39" s="27"/>
       <c r="AQ39" s="1"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="25"/>
+      <c r="AW39" s="25"/>
+      <c r="AX39" s="25"/>
+      <c r="AY39" s="25"/>
+      <c r="AZ39" s="25"/>
+      <c r="BA39" s="25"/>
+      <c r="BB39" s="25"/>
+      <c r="BC39" s="25"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
     </row>
-    <row r="40" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="62"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="9"/>
@@ -4564,37 +5017,49 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="40"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
       <c r="AC40" s="1"/>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="41"/>
-      <c r="AI40" s="41"/>
-      <c r="AJ40" s="41"/>
-      <c r="AK40" s="41"/>
-      <c r="AL40" s="41"/>
-      <c r="AM40" s="41"/>
-      <c r="AN40" s="41"/>
-      <c r="AO40" s="44"/>
-      <c r="AP40" s="44"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="27"/>
+      <c r="AP40" s="27"/>
       <c r="AQ40" s="1"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
     </row>
-    <row r="41" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
-      <c r="E41" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+      <c r="E41" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="9"/>
@@ -4606,41 +5071,55 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
       <c r="AC41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="39">
+      <c r="AG41" s="21">
         <v>1</v>
       </c>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="43" t="s">
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="43"/>
-      <c r="AM41" s="43"/>
-      <c r="AN41" s="43"/>
-      <c r="AO41" s="43">
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26">
         <v>6</v>
       </c>
-      <c r="AP41" s="43"/>
+      <c r="AP41" s="26"/>
       <c r="AQ41" s="1"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="6"/>
+      <c r="AY41" s="7"/>
+      <c r="AZ41" s="7"/>
+      <c r="BA41" s="7"/>
+      <c r="BB41" s="7"/>
+      <c r="BC41" s="7"/>
+      <c r="BD41" s="8"/>
+      <c r="BE41" s="3"/>
     </row>
-    <row r="42" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="9"/>
@@ -4652,37 +5131,51 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
       <c r="AC42" s="1"/>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="43"/>
-      <c r="AM42" s="43"/>
-      <c r="AN42" s="43"/>
-      <c r="AO42" s="43"/>
-      <c r="AP42" s="43"/>
+      <c r="AG42" s="21"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="26"/>
+      <c r="AN42" s="26"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="26"/>
       <c r="AQ42" s="1"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV42" s="19"/>
+      <c r="AW42" s="40"/>
+      <c r="AX42" s="6"/>
+      <c r="AY42" s="7"/>
+      <c r="AZ42" s="7"/>
+      <c r="BA42" s="7"/>
+      <c r="BB42" s="7"/>
+      <c r="BC42" s="7"/>
+      <c r="BD42" s="8"/>
+      <c r="BE42" s="3"/>
     </row>
-    <row r="43" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
-      <c r="E43" s="30">
+      <c r="E43" s="53">
         <v>6734</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="9"/>
@@ -4694,35 +5187,47 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="40"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
       <c r="AC43" s="1"/>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="39"/>
-      <c r="AH43" s="39"/>
-      <c r="AI43" s="43"/>
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="43"/>
-      <c r="AL43" s="43"/>
-      <c r="AM43" s="43"/>
-      <c r="AN43" s="43"/>
-      <c r="AO43" s="43"/>
-      <c r="AP43" s="43"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="26"/>
+      <c r="AN43" s="26"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
       <c r="AQ43" s="1"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="3"/>
     </row>
-    <row r="44" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="9"/>
@@ -4734,34 +5239,48 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
       <c r="AC44" s="1"/>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="38">
+      <c r="AG44" s="32">
         <v>2</v>
       </c>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="32" t="s">
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AJ44" s="32"/>
-      <c r="AK44" s="32"/>
-      <c r="AL44" s="32"/>
-      <c r="AM44" s="32"/>
-      <c r="AN44" s="32"/>
-      <c r="AO44" s="32">
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="24"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="24"/>
+      <c r="AO44" s="24">
         <v>5</v>
       </c>
-      <c r="AP44" s="32"/>
+      <c r="AP44" s="24"/>
       <c r="AQ44" s="1"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY44" s="17"/>
+      <c r="AZ44" s="17"/>
+      <c r="BA44" s="18"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="3"/>
     </row>
-    <row r="45" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -4780,28 +5299,40 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
-      <c r="AB45" s="40"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
       <c r="AC45" s="1"/>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="32"/>
-      <c r="AJ45" s="32"/>
-      <c r="AK45" s="32"/>
-      <c r="AL45" s="32"/>
-      <c r="AM45" s="32"/>
-      <c r="AN45" s="32"/>
-      <c r="AO45" s="32"/>
-      <c r="AP45" s="32"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="32"/>
+      <c r="AI45" s="24"/>
+      <c r="AJ45" s="24"/>
+      <c r="AK45" s="24"/>
+      <c r="AL45" s="24"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="24"/>
+      <c r="AP45" s="24"/>
       <c r="AQ45" s="1"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3"/>
     </row>
-    <row r="46" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4820,43 +5351,55 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="40"/>
-      <c r="AA46" s="40"/>
-      <c r="AB46" s="40"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
       <c r="AC46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46" s="37">
+      <c r="AG46" s="31">
         <v>3</v>
       </c>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="12" t="s">
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AJ46" s="12"/>
-      <c r="AK46" s="12"/>
-      <c r="AL46" s="12"/>
-      <c r="AM46" s="12"/>
-      <c r="AN46" s="12"/>
-      <c r="AO46" s="29">
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="19"/>
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="30">
         <v>4</v>
       </c>
-      <c r="AP46" s="29"/>
+      <c r="AP46" s="30"/>
       <c r="AQ46" s="1"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
+      <c r="BC46" s="3"/>
+      <c r="BD46" s="3"/>
+      <c r="BE46" s="3"/>
     </row>
-    <row r="47" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
-      <c r="E47" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="19"/>
+      <c r="E47" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="9"/>
@@ -4868,41 +5411,53 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
       <c r="AC47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="12">
+      <c r="AG47" s="19">
         <v>4</v>
       </c>
-      <c r="AH47" s="12"/>
-      <c r="AI47" s="12" t="s">
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AJ47" s="12"/>
-      <c r="AK47" s="12"/>
-      <c r="AL47" s="12"/>
-      <c r="AM47" s="12"/>
-      <c r="AN47" s="12"/>
-      <c r="AO47" s="29">
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19"/>
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="30">
         <v>3</v>
       </c>
-      <c r="AP47" s="29"/>
+      <c r="AP47" s="30"/>
       <c r="AQ47" s="1"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
     </row>
-    <row r="48" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="46"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="9"/>
@@ -4914,34 +5469,46 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="40"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
       <c r="AC48" s="1"/>
       <c r="AF48" s="1"/>
-      <c r="AG48" s="12">
+      <c r="AG48" s="19">
         <v>5</v>
       </c>
-      <c r="AH48" s="12"/>
-      <c r="AI48" s="12" t="s">
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AJ48" s="12"/>
-      <c r="AK48" s="12"/>
-      <c r="AL48" s="12"/>
-      <c r="AM48" s="12"/>
-      <c r="AN48" s="12"/>
-      <c r="AO48" s="29">
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="19"/>
+      <c r="AL48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="30">
         <v>2</v>
       </c>
-      <c r="AP48" s="29"/>
+      <c r="AP48" s="30"/>
       <c r="AQ48" s="1"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
     </row>
-    <row r="49" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -4960,43 +5527,55 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="40"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
       <c r="AC49" s="1"/>
       <c r="AF49" s="1"/>
-      <c r="AG49" s="12">
+      <c r="AG49" s="19">
         <v>6</v>
       </c>
-      <c r="AH49" s="12"/>
-      <c r="AI49" s="12" t="s">
+      <c r="AH49" s="19"/>
+      <c r="AI49" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AJ49" s="12"/>
-      <c r="AK49" s="12"/>
-      <c r="AL49" s="12"/>
-      <c r="AM49" s="12"/>
-      <c r="AN49" s="12"/>
-      <c r="AO49" s="29">
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="19"/>
+      <c r="AL49" s="19"/>
+      <c r="AM49" s="19"/>
+      <c r="AN49" s="19"/>
+      <c r="AO49" s="30">
         <v>1</v>
       </c>
-      <c r="AP49" s="29"/>
+      <c r="AP49" s="30"/>
       <c r="AQ49" s="1"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
     </row>
-    <row r="50" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
-      <c r="E50" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
+      <c r="E50" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="9"/>
@@ -5008,13 +5587,13 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
-      <c r="AB50" s="40"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
       <c r="AC50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -5028,15 +5607,27 @@
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
       <c r="AQ50" s="1"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BC50" s="3"/>
+      <c r="BD50" s="3"/>
+      <c r="BE50" s="3"/>
     </row>
-    <row r="51" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="28"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="9"/>
@@ -5048,13 +5639,13 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
-      <c r="AA51" s="40"/>
-      <c r="AB51" s="40"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
       <c r="AC51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -5068,8 +5659,20 @@
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
       <c r="AQ51" s="1"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+      <c r="BC51" s="3"/>
+      <c r="BD51" s="3"/>
+      <c r="BE51" s="3"/>
     </row>
-    <row r="52" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5108,18 +5711,30 @@
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
       <c r="AQ52" s="1"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+      <c r="BC52" s="3"/>
+      <c r="BD52" s="3"/>
+      <c r="BE52" s="3"/>
     </row>
-    <row r="53" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -5150,15 +5765,27 @@
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
     </row>
-    <row r="54" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -5190,8 +5817,20 @@
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
       <c r="AQ54" s="1"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="3"/>
+      <c r="BE54" s="3"/>
     </row>
-    <row r="55" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:57" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5230,8 +5869,20 @@
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
       <c r="AQ55" s="1"/>
+      <c r="AT55" s="3"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="3"/>
+      <c r="AW55" s="3"/>
+      <c r="AX55" s="3"/>
+      <c r="AY55" s="3"/>
+      <c r="AZ55" s="3"/>
+      <c r="BA55" s="3"/>
+      <c r="BB55" s="3"/>
+      <c r="BC55" s="3"/>
+      <c r="BD55" s="3"/>
+      <c r="BE55" s="3"/>
     </row>
-    <row r="56" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:57" x14ac:dyDescent="0.25">
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -5244,8 +5895,20 @@
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
       <c r="AQ56" s="1"/>
+      <c r="AT56" s="3"/>
+      <c r="AU56" s="3"/>
+      <c r="AV56" s="3"/>
+      <c r="AW56" s="3"/>
+      <c r="AX56" s="3"/>
+      <c r="AY56" s="3"/>
+      <c r="AZ56" s="3"/>
+      <c r="BA56" s="3"/>
+      <c r="BB56" s="3"/>
+      <c r="BC56" s="3"/>
+      <c r="BD56" s="3"/>
+      <c r="BE56" s="3"/>
     </row>
-    <row r="57" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:57" x14ac:dyDescent="0.25">
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -5258,8 +5921,20 @@
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
       <c r="AQ57" s="1"/>
+      <c r="AT57" s="3"/>
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="3"/>
+      <c r="AX57" s="3"/>
+      <c r="AY57" s="3"/>
+      <c r="AZ57" s="3"/>
+      <c r="BA57" s="3"/>
+      <c r="BB57" s="3"/>
+      <c r="BC57" s="3"/>
+      <c r="BD57" s="3"/>
+      <c r="BE57" s="3"/>
     </row>
-    <row r="58" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:57" x14ac:dyDescent="0.25">
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -5272,8 +5947,20 @@
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
       <c r="AQ58" s="1"/>
+      <c r="AT58" s="3"/>
+      <c r="AU58" s="3"/>
+      <c r="AV58" s="3"/>
+      <c r="AW58" s="3"/>
+      <c r="AX58" s="3"/>
+      <c r="AY58" s="3"/>
+      <c r="AZ58" s="3"/>
+      <c r="BA58" s="3"/>
+      <c r="BB58" s="3"/>
+      <c r="BC58" s="3"/>
+      <c r="BD58" s="3"/>
+      <c r="BE58" s="3"/>
     </row>
-    <row r="59" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:57" x14ac:dyDescent="0.25">
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -5286,8 +5973,20 @@
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
+      <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="3"/>
+      <c r="AX59" s="3"/>
+      <c r="AY59" s="3"/>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="3"/>
+      <c r="BD59" s="3"/>
+      <c r="BE59" s="3"/>
     </row>
-    <row r="60" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:57" x14ac:dyDescent="0.25">
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -5300,8 +5999,20 @@
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
       <c r="AQ60" s="1"/>
+      <c r="AT60" s="3"/>
+      <c r="AU60" s="3"/>
+      <c r="AV60" s="3"/>
+      <c r="AW60" s="3"/>
+      <c r="AX60" s="3"/>
+      <c r="AY60" s="3"/>
+      <c r="AZ60" s="3"/>
+      <c r="BA60" s="3"/>
+      <c r="BB60" s="3"/>
+      <c r="BC60" s="3"/>
+      <c r="BD60" s="3"/>
+      <c r="BE60" s="3"/>
     </row>
-    <row r="61" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:57" x14ac:dyDescent="0.25">
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -5314,27 +6025,106 @@
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
       <c r="AQ61" s="1"/>
+      <c r="AT61" s="3"/>
+      <c r="AU61" s="3"/>
+      <c r="AV61" s="3"/>
+      <c r="AW61" s="3"/>
+      <c r="AX61" s="3"/>
+      <c r="AY61" s="3"/>
+      <c r="AZ61" s="3"/>
+      <c r="BA61" s="3"/>
+      <c r="BB61" s="3"/>
+      <c r="BC61" s="3"/>
+      <c r="BD61" s="3"/>
+      <c r="BE61" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y44:AB44"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="Y46:AB46"/>
-    <mergeCell ref="Y47:AB47"/>
-    <mergeCell ref="Y48:AB48"/>
-    <mergeCell ref="V49:X49"/>
+  <mergeCells count="128">
+    <mergeCell ref="BH4:BI5"/>
+    <mergeCell ref="BJ5:BQ8"/>
+    <mergeCell ref="BI10:BR10"/>
+    <mergeCell ref="BI11:BR11"/>
+    <mergeCell ref="BI12:BR12"/>
+    <mergeCell ref="BI13:BR13"/>
+    <mergeCell ref="BI14:BR14"/>
+    <mergeCell ref="BI15:BR15"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="AT34:AU35"/>
+    <mergeCell ref="AV36:BC39"/>
+    <mergeCell ref="AU41:AW41"/>
+    <mergeCell ref="AU42:AW42"/>
+    <mergeCell ref="AX44:BA44"/>
+    <mergeCell ref="E53:J54"/>
+    <mergeCell ref="E5:N6"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:N19"/>
+    <mergeCell ref="E47:J48"/>
+    <mergeCell ref="E50:J51"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="E43:J44"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="O38:U39"/>
+    <mergeCell ref="D34:F35"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="AB4:AC5"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="S8:AB9"/>
+    <mergeCell ref="S6:AB7"/>
+    <mergeCell ref="E9:N10"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="AW29:AZ29"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="AG11:AP11"/>
+    <mergeCell ref="AH5:AO8"/>
+    <mergeCell ref="AG10:AP10"/>
+    <mergeCell ref="AF4:AG5"/>
+    <mergeCell ref="AT4:AU5"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AV5:BC7"/>
+    <mergeCell ref="G27:L28"/>
+    <mergeCell ref="AO38:AP38"/>
+    <mergeCell ref="AO49:AP49"/>
+    <mergeCell ref="AO48:AP48"/>
+    <mergeCell ref="AI49:AN49"/>
+    <mergeCell ref="AI48:AN48"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AG44:AH45"/>
+    <mergeCell ref="AI47:AN47"/>
+    <mergeCell ref="AO44:AP45"/>
+    <mergeCell ref="AO47:AP47"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AI44:AN45"/>
+    <mergeCell ref="AI46:AN46"/>
+    <mergeCell ref="AI38:AN38"/>
+    <mergeCell ref="AG38:AH38"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="T16:AA19"/>
@@ -5359,77 +6149,25 @@
     <mergeCell ref="V42:X42"/>
     <mergeCell ref="V43:X43"/>
     <mergeCell ref="H24:K24"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y44:AB44"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="Y46:AB46"/>
+    <mergeCell ref="Y47:AB47"/>
+    <mergeCell ref="Y48:AB48"/>
+    <mergeCell ref="V49:X49"/>
     <mergeCell ref="S23:V23"/>
-    <mergeCell ref="G27:L28"/>
-    <mergeCell ref="AO38:AP38"/>
-    <mergeCell ref="AO49:AP49"/>
-    <mergeCell ref="AO48:AP48"/>
-    <mergeCell ref="AI49:AN49"/>
-    <mergeCell ref="AI48:AN48"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AG44:AH45"/>
-    <mergeCell ref="AI47:AN47"/>
-    <mergeCell ref="AO44:AP45"/>
-    <mergeCell ref="AO47:AP47"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AI44:AN45"/>
-    <mergeCell ref="AI46:AN46"/>
-    <mergeCell ref="AI38:AN38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AW29:AZ29"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AG11:AP11"/>
-    <mergeCell ref="AH5:AO8"/>
-    <mergeCell ref="AG10:AP10"/>
-    <mergeCell ref="AF4:AG5"/>
-    <mergeCell ref="AT4:AU5"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AV5:BC7"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="AB4:AC5"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="S8:AB9"/>
-    <mergeCell ref="S6:AB7"/>
-    <mergeCell ref="E9:N10"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="E53:J54"/>
-    <mergeCell ref="E5:N6"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E18:N19"/>
-    <mergeCell ref="E47:J48"/>
-    <mergeCell ref="E50:J51"/>
-    <mergeCell ref="E41:J42"/>
-    <mergeCell ref="E43:J44"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="O38:U39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
